--- a/materials_information.xlsx
+++ b/materials_information.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="267">
   <si>
     <t>material_id</t>
   </si>
@@ -244,6 +244,9 @@
     <t>xas</t>
   </si>
   <si>
+    <t>poscar</t>
+  </si>
+  <si>
     <t>mp-2232</t>
   </si>
   <si>
@@ -280,22 +283,22 @@
     <t>mp-28709</t>
   </si>
   <si>
-    <t>&lt;_abc._abc_data object at 0x30d85c040&gt;</t>
-  </si>
-  <si>
-    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1597071), band_gap=3.4316, cbm={'band_index': {'1': [16]}, 'kpoint_index': [98, 99, 124], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30d7e5eb0&gt;, 'energy': 1.2681, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1387, 0.1387, 0.0363, 0.0363, 0.0363, 0.0363], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [15]}, 'kpoint_index': [98, 99, 124], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30cde5520&gt;, 'energy': -2.1635, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.1402, 0.1402, 0.1402, 0.1402], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-2.11786231, is_gap_direct=True, is_metal=False, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g_{1}', 'A_1': 'g', 'R': 'e', 'S': 'a', 'T': 'f', 'X': 'd_{1}', 'X_1': 'd', 'Y': 'b', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'B_2', 'A_1': 'G_2', 'R': 'R_2', 'S': 'S', 'T': 'T_2', 'X': 'DELTA_0', 'X_1': 'F_0', 'Y': 'Y', 'Z': 'Z_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'d': 'X_1', 'b': 'Y', 'd_{1}': 'X', 'a': 'S', 'Γ': '\\Gamma', 'f': 'T', 'g': 'A_1', 'e': 'R', 'g_{1}': 'A', 'c': 'Z'}, 'hinuma': {'d': 'F_0', 'b': 'Y', 'd_{1}': 'DELTA_0', 'a': 'S', 'Γ': 'GAMMA', 'f': 'T_2', 'g': 'G_2', 'e': 'R_2', 'g_{1}': 'B_2', 'c': 'Z_2'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Y': 'Y', 'T_2': 'T', 'Z_2': 'Z', 'S': 'S', 'R_2': 'R', 'DELTA_0': 'X', 'F_0': 'X_1', 'B_2': 'A', 'G_2': 'A_1', 'T': 'T^{*}', 'Z': 'Z^{*}', 'R': 'R^{*}', 'B_0': 'A^{*}', 'G_0': 'A^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Y': 'b', 'T_2': 'f', 'Z_2': 'c', 'S': 'a', 'R_2': 'e', 'DELTA_0': 'd_{1}', 'F_0': 'd', 'B_2': 'g_{1}', 'G_2': 'g', 'T': 'f^{*}', 'Z': 'c^{*}', 'R': 'e^{*}', 'B_0': 'g^{*}', 'G_0': 'g^{*}'}}}, direct_gap=3.4316) hinuma=BandStructureSummaryData(task_id=MPID(mp-2060130), band_gap=3.4316, cbm={'band_index': {'1': [16]}, 'kpoint_index': [18, 19, 82], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30c80d2e0&gt;, 'energy': 1.2681, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1387, 0.1387, 0.0363, 0.0363, 0.0363, 0.0363], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [15]}, 'kpoint_index': [18, 19, 82], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30c80d250&gt;, 'energy': -2.1635, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.1402, 0.1402, 0.1402, 0.1402], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-2.02264711, is_gap_direct=True, is_metal=False, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g_{1}', 'A_1': 'g', 'R': 'e', 'S': 'a', 'T': 'f', 'X': 'd_{1}', 'X_1': 'd', 'Y': 'b', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'B_2', 'A_1': 'G_2', 'R': 'R_2', 'S': 'S', 'T': 'T_2', 'X': 'DELTA_0', 'X_1': 'F_0', 'Y': 'Y', 'Z': 'Z_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'d': 'X_1', 'b': 'Y', 'd_{1}': 'X', 'a': 'S', 'Γ': '\\Gamma', 'f': 'T', 'g': 'A_1', 'e': 'R', 'g_{1}': 'A', 'c': 'Z'}, 'hinuma': {'d': 'F_0', 'b': 'Y', 'd_{1}': 'DELTA_0', 'a': 'S', 'Γ': 'GAMMA', 'f': 'T_2', 'g': 'G_2', 'e': 'R_2', 'g_{1}': 'B_2', 'c': 'Z_2'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Y': 'Y', 'T_2': 'T', 'Z_2': 'Z', 'S': 'S', 'R_2': 'R', 'DELTA_0': 'X', 'F_0': 'X_1', 'B_2': 'A', 'G_2': 'A_1', 'T': 'T^{*}', 'Z': 'Z^{*}', 'R': 'R^{*}', 'B_0': 'A^{*}', 'G_0': 'A^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Y': 'b', 'T_2': 'f', 'Z_2': 'c', 'S': 'a', 'R_2': 'e', 'DELTA_0': 'd_{1}', 'F_0': 'd', 'B_2': 'g_{1}', 'G_2': 'g', 'T': 'f^{*}', 'Z': 'c^{*}', 'R': 'e^{*}', 'B_0': 'g^{*}', 'G_0': 'g^{*}'}}}, direct_gap=3.4316) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2343493), band_gap=3.4316, cbm={'band_index': {'1': [16]}, 'kpoint_index': [94, 95, 218, 219], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30c80dd00&gt;, 'energy': 1.2681, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1387, 0.1387, 0.0363, 0.0363, 0.0363, 0.0363], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [15]}, 'kpoint_index': [94, 95, 218, 219], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30c80d400&gt;, 'energy': -2.1635, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.1402, 0.1402, 0.1402, 0.1402], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-2.12076032, is_gap_direct=True, is_metal=False, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g_{1}', 'A_1': 'g', 'R': 'e', 'S': 'a', 'T': 'f', 'X': 'd_{1}', 'X_1': 'd', 'Y': 'b', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'B_2', 'A_1': 'G_2', 'R': 'R_2', 'S': 'S', 'T': 'T_2', 'X': 'DELTA_0', 'X_1': 'F_0', 'Y': 'Y', 'Z': 'Z_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'d': 'X_1', 'b': 'Y', 'd_{1}': 'X', 'a': 'S', 'Γ': '\\Gamma', 'f': 'T', 'g': 'A_1', 'e': 'R', 'g_{1}': 'A', 'c': 'Z'}, 'hinuma': {'d': 'F_0', 'b': 'Y', 'd_{1}': 'DELTA_0', 'a': 'S', 'Γ': 'GAMMA', 'f': 'T_2', 'g': 'G_2', 'e': 'R_2', 'g_{1}': 'B_2', 'c': 'Z_2'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Y': 'Y', 'T_2': 'T', 'Z_2': 'Z', 'S': 'S', 'R_2': 'R', 'DELTA_0': 'X', 'F_0': 'X_1', 'B_2': 'A', 'G_2': 'A_1', 'T': 'T^{*}', 'Z': 'Z^{*}', 'R': 'R^{*}', 'B_0': 'A^{*}', 'G_0': 'A^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Y': 'b', 'T_2': 'f', 'Z_2': 'c', 'S': 'a', 'R_2': 'e', 'DELTA_0': 'd_{1}', 'F_0': 'd', 'B_2': 'g_{1}', 'G_2': 'g', 'T': 'f^{*}', 'Z': 'c^{*}', 'R': 'e^{*}', 'B_0': 'g^{*}', 'G_0': 'g^{*}'}}}, direct_gap=3.4316)</t>
-  </si>
-  <si>
-    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-745527), band_gap=0.11609999999999998, cbm={'band_index': {'-1': [176], '1': []}, 'kpoint_index': [0], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30c80d100&gt;, 'energy': 0.2753, 'projections': {'-1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0005, 0.0005, 0.0005, 0.0005, 0.0001, 0.0001, 0.0001, 0.0001, 0.0008, 0.0008, 0.0008, 0.0008, 0.0081, 0.0081, 0.0081, 0.0081, 0.0046, 0.0046, 0.0046, 0.0046, 0.0002, 0.0002, 0.0002, 0.0002, 0.0055, 0.0055, 0.0055, 0.0055, 0.0001, 0.0001, 0.0001, 0.0001, 0.0052, 0.0052, 0.0052, 0.0052, 0.005, 0.005, 0.005, 0.005, 0.0126, 0.0126, 0.0126, 0.0126, 0.0027, 0.0027, 0.0027, 0.0027], [0.0002, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0023, 0.0023, 0.0023, 0.0023, 0.0002, 0.0002, 0.0002, 0.0002, 0.0007, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0, 0.0, 0.0045, 0.0045, 0.0045, 0.0045, 0.0083, 0.0083, 0.0083, 0.0083, 0.0084, 0.0084, 0.0084, 0.0084, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0059, 0.0059, 0.0059, 0.0059], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0014, 0.0014, 0.0014, 0.0014, 0.0001, 0.0001, 0.0001, 0.0001, 0.0004, 0.0004, 0.0004, 0.0004, 0.0012, 0.0012, 0.0012, 0.0012, 0.0104, 0.0104, 0.0104, 0.0104, 0.0004, 0.0004, 0.0004, 0.0004, 0.0115, 0.0115, 0.0115, 0.0115, 0.0057, 0.0057, 0.0057, 0.0057, 0.0022, 0.0022, 0.0022, 0.0022, 0.0, 0.0, 0.0, 0.0, 0.0283, 0.0283, 0.0283, 0.0283], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'-1': [175], '1': []}, 'kpoint_index': ['38'], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30c1811f0&gt;, 'energy': 0.1592, 'projections': {'-1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0147, 0.0147, 0.0146, 0.0146, 0.0003, 0.0003, 0.0003, 0.0003, 0.0015, 0.0015, 0.0015, 0.0015, 0.0069, 0.0069, 0.0069, 0.0069, 0.0017, 0.0017, 0.0017, 0.0017, 0.0059, 0.0059, 0.0059, 0.0059, 0.0003, 0.0003, 0.0003, 0.0003, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0021, 0.0021, 0.0021, 0.0021, 0.0014, 0.0014, 0.0014, 0.0014, 0.0071, 0.0071, 0.0071, 0.0071], [0.0005, 0.0005, 0.0005, 0.0005, 0.0001, 0.0001, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0004, 0.0004, 0.0004, 0.0004, 0.0014, 0.0014, 0.0014, 0.0014, 0.0082, 0.0082, 0.0082, 0.0082, 0.0047, 0.0047, 0.0047, 0.0047, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.014, 0.014, 0.014, 0.014, 0.002, 0.002, 0.002, 0.002, 0.0027, 0.0027, 0.0027, 0.0027, 0.0009, 0.0009, 0.0009, 0.0009, 0.0113, 0.0113, 0.0113, 0.0113, 0.0013, 0.0013, 0.0013, 0.0013, 0.0062, 0.0062, 0.0062, 0.0062], [0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.011, 0.011, 0.011, 0.011, 0.0014, 0.0014, 0.0014, 0.0014, 0.0019, 0.0019, 0.0019, 0.0019, 0.0036, 0.0036, 0.0036, 0.0036, 0.0023, 0.0023, 0.0023, 0.0023, 0.0126, 0.0126, 0.0126, 0.0126, 0.0005, 0.0005, 0.0005, 0.0005, 0.0035, 0.0035, 0.0035, 0.0035, 0.0009, 0.0009, 0.0009, 0.0009, 0.0018, 0.0018, 0.0018, 0.0018, 0.0001, 0.0001, 0.0001, 0.0001, 0.0054, 0.0054, 0.0054, 0.0054], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.23015613, is_gap_direct=False, is_metal=False, magnetic_ordering='FiM', nbands=332.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'd', 'H_1': 'f_{1}', 'H_2': 'f', 'M_1': 'g_{3}', 'M_2': 'g_{3}', 'X': 'b', 'Y_1': 'c', 'Z': 'a', 'C': 'f^{*}', 'D': 'e^{*}', 'D_1': 'D_1', 'E': 'g^{*}', 'H': 'f^{*}', 'M': 'g^{*}', 'Y': 'c^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'C_2', 'C': 'A', 'D': 'D', 'E': 'E', 'H': 'H', 'H_1': 'H_2', 'H_2': 'H_4', 'M': 'M', 'M_1': 'M_2', 'M_2': 'M_2', 'X': 'Y_2', 'Y': 'B', 'Y_1': 'B_2', 'Z': 'Z', 'D_1': 'D_1'}}, 'latimer_munro': {'setyawan_curtarolo': {'f': 'H_2', 'f_{1}': 'H_1', 'b': 'X', 'c': 'Y_1', 'Γ': '\\Gamma', 'd': 'A', 'g_{3}': 'M_1', 'a': 'Z', 'g': 'E^{*}', 'g_{1}': 'M^{*}', 'f_{2}': 'H^{*}', 'f_{3}': 'C^{*}', 'e': 'D^{*}', 'g_{2}': 'g_{2}'}, 'hinuma': {'f': 'H_4', 'f_{1}': 'H_2', 'b': 'Y_2', 'c': 'B_2', 'Γ': 'GAMMA', 'e': 'D_2', 'g_{2}': 'M_4', 'd': 'C_2', 'g_{3}': 'M_2', 'a': 'Z', 'g': 'E^{*}', 'g_{1}': 'M^{*}', 'f_{2}': 'H^{*}', 'f_{3}': 'A^{*}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'Z', 'B': 'Y', 'B_2': 'Y_1', 'Y_2': 'X', 'C_2': 'A', 'D': 'D', 'A': 'C', 'E': 'E', 'H': 'H', 'H_2': 'H_1', 'H_4': 'H_2', 'M': 'M', 'M_2': 'M_1', 'Y': 'X^{*}', 'C': 'A^{*}', 'D_2': 'D^{*}', 'M_4': 'M_4'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'a', 'B_2': 'c', 'Y_2': 'b', 'C_2': 'd', 'D_2': 'e', 'H_2': 'f_{1}', 'H_4': 'f', 'M_2': 'g_{3}', 'M_4': 'g_{2}', 'B': 'c^{*}', 'Y': 'b^{*}', 'C': 'd^{*}', 'D': 'e^{*}', 'A': 'f^{*}', 'E': 'g^{*}', 'H': 'f^{*}', 'M': 'g^{*}'}}}, direct_gap=0.266) hinuma=None latimer_munro=None</t>
+    <t>&lt;_abc._abc_data object at 0x31e2b1440&gt;</t>
+  </si>
+  <si>
+    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1597071), band_gap=3.4316, cbm={'band_index': {'1': [16]}, 'kpoint_index': [98, 99, 124], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31ddd5e50&gt;, 'energy': 1.2681, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1387, 0.1387, 0.0363, 0.0363, 0.0363, 0.0363], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [15]}, 'kpoint_index': [98, 99, 124], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c040&gt;, 'energy': -2.1635, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.1402, 0.1402, 0.1402, 0.1402], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-2.11786231, is_gap_direct=True, is_metal=False, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g_{1}', 'A_1': 'g', 'R': 'e', 'S': 'a', 'T': 'f', 'X': 'd_{1}', 'X_1': 'd', 'Y': 'b', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'B_2', 'A_1': 'G_2', 'R': 'R_2', 'S': 'S', 'T': 'T_2', 'X': 'DELTA_0', 'X_1': 'F_0', 'Y': 'Y', 'Z': 'Z_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'d': 'X_1', 'b': 'Y', 'd_{1}': 'X', 'a': 'S', 'Γ': '\\Gamma', 'f': 'T', 'g': 'A_1', 'e': 'R', 'g_{1}': 'A', 'c': 'Z'}, 'hinuma': {'d': 'F_0', 'b': 'Y', 'd_{1}': 'DELTA_0', 'a': 'S', 'Γ': 'GAMMA', 'f': 'T_2', 'g': 'G_2', 'e': 'R_2', 'g_{1}': 'B_2', 'c': 'Z_2'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Y': 'Y', 'T_2': 'T', 'Z_2': 'Z', 'S': 'S', 'R_2': 'R', 'DELTA_0': 'X', 'F_0': 'X_1', 'B_2': 'A', 'G_2': 'A_1', 'T': 'T^{*}', 'Z': 'Z^{*}', 'R': 'R^{*}', 'B_0': 'A^{*}', 'G_0': 'A^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Y': 'b', 'T_2': 'f', 'Z_2': 'c', 'S': 'a', 'R_2': 'e', 'DELTA_0': 'd_{1}', 'F_0': 'd', 'B_2': 'g_{1}', 'G_2': 'g', 'T': 'f^{*}', 'Z': 'c^{*}', 'R': 'e^{*}', 'B_0': 'g^{*}', 'G_0': 'g^{*}'}}}, direct_gap=3.4316) hinuma=BandStructureSummaryData(task_id=MPID(mp-2060130), band_gap=3.4316, cbm={'band_index': {'1': [16]}, 'kpoint_index': [18, 19, 82], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c250&gt;, 'energy': 1.2681, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1387, 0.1387, 0.0363, 0.0363, 0.0363, 0.0363], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [15]}, 'kpoint_index': [18, 19, 82], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c2e0&gt;, 'energy': -2.1635, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.1402, 0.1402, 0.1402, 0.1402], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-2.02264711, is_gap_direct=True, is_metal=False, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g_{1}', 'A_1': 'g', 'R': 'e', 'S': 'a', 'T': 'f', 'X': 'd_{1}', 'X_1': 'd', 'Y': 'b', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'B_2', 'A_1': 'G_2', 'R': 'R_2', 'S': 'S', 'T': 'T_2', 'X': 'DELTA_0', 'X_1': 'F_0', 'Y': 'Y', 'Z': 'Z_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'d': 'X_1', 'b': 'Y', 'd_{1}': 'X', 'a': 'S', 'Γ': '\\Gamma', 'f': 'T', 'g': 'A_1', 'e': 'R', 'g_{1}': 'A', 'c': 'Z'}, 'hinuma': {'d': 'F_0', 'b': 'Y', 'd_{1}': 'DELTA_0', 'a': 'S', 'Γ': 'GAMMA', 'f': 'T_2', 'g': 'G_2', 'e': 'R_2', 'g_{1}': 'B_2', 'c': 'Z_2'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Y': 'Y', 'T_2': 'T', 'Z_2': 'Z', 'S': 'S', 'R_2': 'R', 'DELTA_0': 'X', 'F_0': 'X_1', 'B_2': 'A', 'G_2': 'A_1', 'T': 'T^{*}', 'Z': 'Z^{*}', 'R': 'R^{*}', 'B_0': 'A^{*}', 'G_0': 'A^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Y': 'b', 'T_2': 'f', 'Z_2': 'c', 'S': 'a', 'R_2': 'e', 'DELTA_0': 'd_{1}', 'F_0': 'd', 'B_2': 'g_{1}', 'G_2': 'g', 'T': 'f^{*}', 'Z': 'c^{*}', 'R': 'e^{*}', 'B_0': 'g^{*}', 'G_0': 'g^{*}'}}}, direct_gap=3.4316) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2343493), band_gap=3.4316, cbm={'band_index': {'1': [16]}, 'kpoint_index': [94, 95, 218, 219], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c370&gt;, 'energy': 1.2681, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.1387, 0.1387, 0.0363, 0.0363, 0.0363, 0.0363], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [15]}, 'kpoint_index': [94, 95, 218, 219], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c400&gt;, 'energy': -2.1635, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.1402, 0.1402, 0.1402, 0.1402], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-2.12076032, is_gap_direct=True, is_metal=False, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g_{1}', 'A_1': 'g', 'R': 'e', 'S': 'a', 'T': 'f', 'X': 'd_{1}', 'X_1': 'd', 'Y': 'b', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'B_2', 'A_1': 'G_2', 'R': 'R_2', 'S': 'S', 'T': 'T_2', 'X': 'DELTA_0', 'X_1': 'F_0', 'Y': 'Y', 'Z': 'Z_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'d': 'X_1', 'b': 'Y', 'd_{1}': 'X', 'a': 'S', 'Γ': '\\Gamma', 'f': 'T', 'g': 'A_1', 'e': 'R', 'g_{1}': 'A', 'c': 'Z'}, 'hinuma': {'d': 'F_0', 'b': 'Y', 'd_{1}': 'DELTA_0', 'a': 'S', 'Γ': 'GAMMA', 'f': 'T_2', 'g': 'G_2', 'e': 'R_2', 'g_{1}': 'B_2', 'c': 'Z_2'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Y': 'Y', 'T_2': 'T', 'Z_2': 'Z', 'S': 'S', 'R_2': 'R', 'DELTA_0': 'X', 'F_0': 'X_1', 'B_2': 'A', 'G_2': 'A_1', 'T': 'T^{*}', 'Z': 'Z^{*}', 'R': 'R^{*}', 'B_0': 'A^{*}', 'G_0': 'A^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Y': 'b', 'T_2': 'f', 'Z_2': 'c', 'S': 'a', 'R_2': 'e', 'DELTA_0': 'd_{1}', 'F_0': 'd', 'B_2': 'g_{1}', 'G_2': 'g', 'T': 'f^{*}', 'Z': 'c^{*}', 'R': 'e^{*}', 'B_0': 'g^{*}', 'G_0': 'g^{*}'}}}, direct_gap=3.4316)</t>
+  </si>
+  <si>
+    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-745527), band_gap=0.11609999999999998, cbm={'band_index': {'-1': [176], '1': []}, 'kpoint_index': [0], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c610&gt;, 'energy': 0.2753, 'projections': {'-1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0005, 0.0005, 0.0005, 0.0005, 0.0001, 0.0001, 0.0001, 0.0001, 0.0008, 0.0008, 0.0008, 0.0008, 0.0081, 0.0081, 0.0081, 0.0081, 0.0046, 0.0046, 0.0046, 0.0046, 0.0002, 0.0002, 0.0002, 0.0002, 0.0055, 0.0055, 0.0055, 0.0055, 0.0001, 0.0001, 0.0001, 0.0001, 0.0052, 0.0052, 0.0052, 0.0052, 0.005, 0.005, 0.005, 0.005, 0.0126, 0.0126, 0.0126, 0.0126, 0.0027, 0.0027, 0.0027, 0.0027], [0.0002, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0023, 0.0023, 0.0023, 0.0023, 0.0002, 0.0002, 0.0002, 0.0002, 0.0007, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0, 0.0, 0.0045, 0.0045, 0.0045, 0.0045, 0.0083, 0.0083, 0.0083, 0.0083, 0.0084, 0.0084, 0.0084, 0.0084, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0059, 0.0059, 0.0059, 0.0059], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0014, 0.0014, 0.0014, 0.0014, 0.0001, 0.0001, 0.0001, 0.0001, 0.0004, 0.0004, 0.0004, 0.0004, 0.0012, 0.0012, 0.0012, 0.0012, 0.0104, 0.0104, 0.0104, 0.0104, 0.0004, 0.0004, 0.0004, 0.0004, 0.0115, 0.0115, 0.0115, 0.0115, 0.0057, 0.0057, 0.0057, 0.0057, 0.0022, 0.0022, 0.0022, 0.0022, 0.0, 0.0, 0.0, 0.0, 0.0283, 0.0283, 0.0283, 0.0283], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'-1': [175], '1': []}, 'kpoint_index': ['38'], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f87c7c0&gt;, 'energy': 0.1592, 'projections': {'-1': [[0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0147, 0.0147, 0.0146, 0.0146, 0.0003, 0.0003, 0.0003, 0.0003, 0.0015, 0.0015, 0.0015, 0.0015, 0.0069, 0.0069, 0.0069, 0.0069, 0.0017, 0.0017, 0.0017, 0.0017, 0.0059, 0.0059, 0.0059, 0.0059, 0.0003, 0.0003, 0.0003, 0.0003, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0001, 0.0021, 0.0021, 0.0021, 0.0021, 0.0014, 0.0014, 0.0014, 0.0014, 0.0071, 0.0071, 0.0071, 0.0071], [0.0005, 0.0005, 0.0005, 0.0005, 0.0001, 0.0001, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0004, 0.0004, 0.0004, 0.0004, 0.0014, 0.0014, 0.0014, 0.0014, 0.0082, 0.0082, 0.0082, 0.0082, 0.0047, 0.0047, 0.0047, 0.0047, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.0027, 0.014, 0.014, 0.014, 0.014, 0.002, 0.002, 0.002, 0.002, 0.0027, 0.0027, 0.0027, 0.0027, 0.0009, 0.0009, 0.0009, 0.0009, 0.0113, 0.0113, 0.0113, 0.0113, 0.0013, 0.0013, 0.0013, 0.0013, 0.0062, 0.0062, 0.0062, 0.0062], [0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.011, 0.011, 0.011, 0.011, 0.0014, 0.0014, 0.0014, 0.0014, 0.0019, 0.0019, 0.0019, 0.0019, 0.0036, 0.0036, 0.0036, 0.0036, 0.0023, 0.0023, 0.0023, 0.0023, 0.0126, 0.0126, 0.0126, 0.0126, 0.0005, 0.0005, 0.0005, 0.0005, 0.0035, 0.0035, 0.0035, 0.0035, 0.0009, 0.0009, 0.0009, 0.0009, 0.0018, 0.0018, 0.0018, 0.0018, 0.0001, 0.0001, 0.0001, 0.0001, 0.0054, 0.0054, 0.0054, 0.0054], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.23015613, is_gap_direct=False, is_metal=False, magnetic_ordering='FiM', nbands=332.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'd', 'H_1': 'f_{1}', 'H_2': 'f', 'M_1': 'g_{3}', 'M_2': 'g_{3}', 'X': 'b', 'Y_1': 'c', 'Z': 'a', 'C': 'f^{*}', 'D': 'e^{*}', 'D_1': 'D_1', 'E': 'g^{*}', 'H': 'f^{*}', 'M': 'g^{*}', 'Y': 'c^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'C_2', 'C': 'A', 'D': 'D', 'E': 'E', 'H': 'H', 'H_1': 'H_2', 'H_2': 'H_4', 'M': 'M', 'M_1': 'M_2', 'M_2': 'M_2', 'X': 'Y_2', 'Y': 'B', 'Y_1': 'B_2', 'Z': 'Z', 'D_1': 'D_1'}}, 'latimer_munro': {'setyawan_curtarolo': {'f': 'H_2', 'f_{1}': 'H_1', 'b': 'X', 'c': 'Y_1', 'Γ': '\\Gamma', 'd': 'A', 'g_{3}': 'M_1', 'a': 'Z', 'g': 'E^{*}', 'g_{1}': 'M^{*}', 'f_{2}': 'H^{*}', 'f_{3}': 'C^{*}', 'e': 'D^{*}', 'g_{2}': 'g_{2}'}, 'hinuma': {'f': 'H_4', 'f_{1}': 'H_2', 'b': 'Y_2', 'c': 'B_2', 'Γ': 'GAMMA', 'e': 'D_2', 'g_{2}': 'M_4', 'd': 'C_2', 'g_{3}': 'M_2', 'a': 'Z', 'g': 'E^{*}', 'g_{1}': 'M^{*}', 'f_{2}': 'H^{*}', 'f_{3}': 'A^{*}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'Z', 'B': 'Y', 'B_2': 'Y_1', 'Y_2': 'X', 'C_2': 'A', 'D': 'D', 'A': 'C', 'E': 'E', 'H': 'H', 'H_2': 'H_1', 'H_4': 'H_2', 'M': 'M', 'M_2': 'M_1', 'Y': 'X^{*}', 'C': 'A^{*}', 'D_2': 'D^{*}', 'M_4': 'M_4'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'a', 'B_2': 'c', 'Y_2': 'b', 'C_2': 'd', 'D_2': 'e', 'H_2': 'f_{1}', 'H_4': 'f', 'M_2': 'g_{3}', 'M_4': 'g_{2}', 'B': 'c^{*}', 'Y': 'b^{*}', 'C': 'd^{*}', 'D': 'e^{*}', 'A': 'f^{*}', 'E': 'g^{*}', 'H': 'f^{*}', 'M': 'g^{*}'}}}, direct_gap=0.266) hinuma=None latimer_munro=None</t>
   </si>
   <si>
     <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1585021), band_gap=0.0, cbm=None, vbm=None, efermi=6.89527159, is_gap_direct=False, is_metal=True, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g', 'M': 'd', 'R': 'e', 'X': 'a', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'A', 'M': 'M', 'R': 'R', 'X': 'X', 'Z': 'Z'}}, 'latimer_munro': {'setyawan_curtarolo': {'e': 'R', 'g': 'A', 'd': 'M', 'a': 'X', 'c': 'Z', 'Γ': '\\Gamma'}, 'hinuma': {'e': 'R', 'g': 'A', 'd': 'M', 'a': 'X', 'c': 'Z', 'Γ': 'GAMMA'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'Z', 'M': 'M', 'A': 'A', 'R': 'R', 'X': 'X'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'M': 'd', 'A': 'g', 'R': 'e', 'X': 'a'}}}, direct_gap=0.0) hinuma=BandStructureSummaryData(task_id=MPID(mp-2151669), band_gap=0.0, cbm=None, vbm=None, efermi=6.89527159, is_gap_direct=False, is_metal=True, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g', 'M': 'd', 'R': 'e', 'X': 'a', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'A', 'M': 'M', 'R': 'R', 'X': 'X', 'Z': 'Z'}}, 'latimer_munro': {'setyawan_curtarolo': {'e': 'R', 'g': 'A', 'd': 'M', 'a': 'X', 'c': 'Z', 'Γ': '\\Gamma'}, 'hinuma': {'e': 'R', 'g': 'A', 'd': 'M', 'a': 'X', 'c': 'Z', 'Γ': 'GAMMA'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'Z', 'M': 'M', 'A': 'A', 'R': 'R', 'X': 'X'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'M': 'd', 'A': 'g', 'R': 'e', 'X': 'a'}}}, direct_gap=0.0) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2314116), band_gap=0.0, cbm=None, vbm=None, efermi=6.88881615, is_gap_direct=False, is_metal=True, magnetic_ordering='NM', nbands=64.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'A': 'g', 'M': 'd', 'R': 'e', 'X': 'a', 'Z': 'c'}, 'hinuma': {'\\Gamma': 'GAMMA', 'A': 'A', 'M': 'M', 'R': 'R', 'X': 'X', 'Z': 'Z'}}, 'latimer_munro': {'setyawan_curtarolo': {'e': 'R', 'g': 'A', 'd': 'M', 'a': 'X', 'c': 'Z', 'Γ': '\\Gamma'}, 'hinuma': {'e': 'R', 'g': 'A', 'd': 'M', 'a': 'X', 'c': 'Z', 'Γ': 'GAMMA'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'Z', 'M': 'M', 'A': 'A', 'R': 'R', 'X': 'X'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'M': 'd', 'A': 'g', 'R': 'e', 'X': 'a'}}}, direct_gap=0.0)</t>
   </si>
   <si>
-    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1608212), band_gap=2.5569, cbm={'band_index': {'1': [44]}, 'kpoint_index': [16, 17, 93], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc09ca0&gt;, 'energy': 2.157, 'projections': {'1': [[0.0, 0.0068, 0.0068, 0.0068, 0.0068, 0.0068, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0019, 0.0019, 0.0068], [0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0, 0.0304, 0.0076, 0.0076, 0.0304, 0.0076, 0.0076, 0.0, 0.0, 0.0001], [0.0001, 0.0082, 0.0108, 0.0108, 0.0108, 0.0082, 0.0, 0.0142, 0.0142, 0.0, 0.0142, 0.0142, 0.0005, 0.0005, 0.0108], [0.0001, 0.0182, 0.0155, 0.0155, 0.0155, 0.0182, 0.0, 0.0086, 0.0086, 0.0, 0.0086, 0.0086, 0.0008, 0.0008, 0.0155], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [43]}, 'kpoint_index': [58, 59], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30dca16a0&gt;, 'energy': -0.3999, 'projections': {'1': [[0.0, 0.0, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0007, 0.0007, 0.0, 0.0007, 0.0007, 0.0001, 0.0001, 0.0007], [0.0, 0.0, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0001, 0.0001, 0.0, 0.0001, 0.0001, 0.0, 0.0, 0.0002], [0.0002, 0.0436, 0.0003, 0.0003, 0.0003, 0.0436, 0.0005, 0.0217, 0.0217, 0.0005, 0.0217, 0.0217, 0.0003, 0.0003, 0.0003], [0.0005, 0.0564, 0.0196, 0.0196, 0.0196, 0.0564, 0.0871, 0.0063, 0.0063, 0.0871, 0.0063, 0.0063, 0.0, 0.0, 0.0196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-0.35151479, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'F': 'b', 'L': 'a', 'P': 'f', 'Q': 'g', 'Z': 'e', 'P_1': 'f^{*}', 'Q_1': 'g^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'F': 'F', 'L': 'L', 'P': 'M', 'P_1': 'M_2', 'Q': 'P_2', 'Q_1': 'R_0', 'Z': 'T'}}, 'latimer_munro': {'setyawan_curtarolo': {'g': 'Q', 'f': 'P', 'b': 'F', 'e': 'Z', 'Γ': '\\Gamma', 'a': 'L', 'd': 'd', 'd_{1}': 'd_{1}', 'g_{1}': 'Q^{*}'}, 'hinuma': {'g': 'P_2', 'f': 'M', 'b': 'F', 'e': 'T', 'Γ': 'GAMMA', 'a': 'L', 'g_{1}': 'P_0', 'd': 'd', 'd_{1}': 'd_{1}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'T': 'Z', 'P_2': 'Q', 'R_0': 'Q_1', 'M': 'P', 'M_2': 'P_1', 'L': 'L', 'F': 'F', 'P_0': 'Q^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'T': 'e', 'P_0': 'g_{1}', 'P_2': 'g', 'M': 'f', 'L': 'a', 'F': 'b', 'R_0': 'g^{*}', 'M_2': 'f^{*}'}}}, direct_gap=2.6489000000000003) hinuma=BandStructureSummaryData(task_id=MPID(mp-2076527), band_gap=2.5569, cbm={'band_index': {'1': [44]}, 'kpoint_index': [20, 21], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc18370&gt;, 'energy': 2.157, 'projections': {'1': [[0.0, 0.0068, 0.0068, 0.0068, 0.0068, 0.0068, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0019, 0.0019, 0.0068], [0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0, 0.0303, 0.0076, 0.0076, 0.0303, 0.0076, 0.0076, 0.0, 0.0, 0.0001], [0.0001, 0.0082, 0.0108, 0.0108, 0.0108, 0.0082, 0.0, 0.0142, 0.0142, 0.0, 0.0142, 0.0142, 0.0005, 0.0005, 0.0108], [0.0001, 0.0182, 0.0155, 0.0155, 0.0155, 0.0182, 0.0, 0.0086, 0.0086, 0.0, 0.0086, 0.0086, 0.0008, 0.0008, 0.0155], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [43]}, 'kpoint_index': [49], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc18880&gt;, 'energy': -0.3999, 'projections': {'1': [[0.0, 0.0, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0007, 0.0007, 0.0, 0.0007, 0.0007, 0.0001, 0.0001, 0.0007], [0.0, 0.0, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0001, 0.0001, 0.0, 0.0001, 0.0001, 0.0, 0.0, 0.0002], [0.0002, 0.0436, 0.0003, 0.0003, 0.0003, 0.0436, 0.0005, 0.0217, 0.0217, 0.0005, 0.0217, 0.0217, 0.0003, 0.0003, 0.0003], [0.0005, 0.0564, 0.0196, 0.0196, 0.0196, 0.0564, 0.0871, 0.0063, 0.0063, 0.0871, 0.0063, 0.0063, 0.0, 0.0, 0.0196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-0.28177322, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'F': 'b', 'L': 'a', 'P': 'f', 'Q': 'g', 'Z': 'e', 'P_1': 'f^{*}', 'Q_1': 'g^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'F': 'F', 'L': 'L', 'P': 'M', 'P_1': 'M_2', 'Q': 'P_2', 'Q_1': 'R_0', 'Z': 'T'}}, 'latimer_munro': {'setyawan_curtarolo': {'g': 'Q', 'f': 'P', 'b': 'F', 'e': 'Z', 'Γ': '\\Gamma', 'a': 'L', 'd': 'd', 'd_{1}': 'd_{1}', 'g_{1}': 'Q^{*}'}, 'hinuma': {'g': 'P_2', 'f': 'M', 'b': 'F', 'e': 'T', 'Γ': 'GAMMA', 'a': 'L', 'g_{1}': 'P_0', 'd': 'd', 'd_{1}': 'd_{1}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'T': 'Z', 'P_2': 'Q', 'R_0': 'Q_1', 'M': 'P', 'M_2': 'P_1', 'L': 'L', 'F': 'F', 'P_0': 'Q^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'T': 'e', 'P_0': 'g_{1}', 'P_2': 'g', 'M': 'f', 'L': 'a', 'F': 'b', 'R_0': 'g^{*}', 'M_2': 'f^{*}'}}}, direct_gap=2.6489000000000003) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2689264), band_gap=2.5569, cbm={'band_index': {'1': [44]}, 'kpoint_index': [0, 19, 20, 87, 88], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc18d90&gt;, 'energy': 2.157, 'projections': {'1': [[0.0, 0.0068, 0.0068, 0.0068, 0.0068, 0.0068, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0019, 0.0019, 0.0068], [0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0, 0.0304, 0.0076, 0.0076, 0.0304, 0.0076, 0.0076, 0.0, 0.0, 0.0001], [0.0001, 0.0082, 0.0108, 0.0108, 0.0108, 0.0082, 0.0, 0.0142, 0.0142, 0.0, 0.0142, 0.0142, 0.0005, 0.0005, 0.0108], [0.0001, 0.0182, 0.0155, 0.0155, 0.0155, 0.0182, 0.0, 0.0086, 0.0086, 0.0, 0.0086, 0.0086, 0.0008, 0.0008, 0.0155], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [43]}, 'kpoint_index': [10, 11, 144, 145, 154], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc1baf0&gt;, 'energy': -0.3999, 'projections': {'1': [[0.0, 0.0, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0007, 0.0007, 0.0, 0.0007, 0.0007, 0.0001, 0.0001, 0.0007], [0.0, 0.0, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0001, 0.0001, 0.0, 0.0001, 0.0001, 0.0, 0.0, 0.0002], [0.0002, 0.0436, 0.0003, 0.0003, 0.0003, 0.0435, 0.0005, 0.0217, 0.0217, 0.0005, 0.0217, 0.0217, 0.0003, 0.0003, 0.0003], [0.0005, 0.0564, 0.0196, 0.0196, 0.0196, 0.0564, 0.0871, 0.0063, 0.0063, 0.0871, 0.0063, 0.0063, 0.0, 0.0, 0.0196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-0.26854821, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'F': 'b', 'L': 'a', 'P': 'f', 'Q': 'g', 'Z': 'e', 'P_1': 'f^{*}', 'Q_1': 'g^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'F': 'F', 'L': 'L', 'P': 'M', 'P_1': 'M_2', 'Q': 'P_2', 'Q_1': 'R_0', 'Z': 'T'}}, 'latimer_munro': {'setyawan_curtarolo': {'g': 'Q', 'f': 'P', 'b': 'F', 'e': 'Z', 'Γ': '\\Gamma', 'a': 'L', 'd': 'd', 'd_{1}': 'd_{1}', 'g_{1}': 'Q^{*}'}, 'hinuma': {'g': 'P_2', 'f': 'M', 'b': 'F', 'e': 'T', 'Γ': 'GAMMA', 'a': 'L', 'g_{1}': 'P_0', 'd': 'd', 'd_{1}': 'd_{1}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'T': 'Z', 'P_2': 'Q', 'R_0': 'Q_1', 'M': 'P', 'M_2': 'P_1', 'L': 'L', 'F': 'F', 'P_0': 'Q^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'T': 'e', 'P_0': 'g_{1}', 'P_2': 'g', 'M': 'f', 'L': 'a', 'F': 'b', 'R_0': 'g^{*}', 'M_2': 'f^{*}'}}}, direct_gap=2.6489000000000003)</t>
-  </si>
-  <si>
-    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1617599), band_gap=1.7443, cbm={'band_index': {'1': [60]}, 'kpoint_index': [75], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc29760&gt;, 'energy': 2.511, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0043, 0.0043, 0.0053, 0.0053, 0.0001, 0.0001, 0.0102, 0.0103, 0.0044, 0.0045, 0.0004, 0.0004, 0.0002, 0.0002, 0.0007, 0.0007], [0.0115, 0.0115, 0.0089, 0.0089, 0.0006, 0.0006, 0.011, 0.011, 0.0164, 0.0164, 0.0003, 0.0003, 0.0167, 0.0167, 0.0313, 0.0313, 0.0024, 0.0024, 0.0012, 0.0012, 0.0, 0.0], [0.0002, 0.0002, 0.0011, 0.0011, 0.0004, 0.0004, 0.0056, 0.0056, 0.0002, 0.0002, 0.0046, 0.0046, 0.0031, 0.0031, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0007, 0.0007], [0.0218, 0.0218, 0.0213, 0.0213, 0.002, 0.002, 0.0002, 0.0002, 0.0119, 0.0119, 0.0, 0.0, 0.0156, 0.0156, 0.0008, 0.0008, 0.0143, 0.0143, 0.0035, 0.0035, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [59]}, 'kpoint_index': [21], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc2d640&gt;, 'energy': 0.7667, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0003, 0.0003, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0008, 0.0008, 0.0, 0.0], [0.0016, 0.0016, 0.0065, 0.0065, 0.0002, 0.0002, 0.0022, 0.0022, 0.0061, 0.0061, 0.0006, 0.0006, 0.0002, 0.0002, 0.0002, 0.0002, 0.0023, 0.0023, 0.0238, 0.0238, 0.003, 0.003], [0.0002, 0.0002, 0.0004, 0.0004, 0.0001, 0.0001, 0.0007, 0.0007, 0.0021, 0.0021, 0.0005, 0.0005, 0.0006, 0.0006, 0.0003, 0.0003, 0.002, 0.002, 0.0002, 0.0002, 0.1036, 0.1036], [0.0162, 0.0162, 0.0068, 0.0068, 0.0002, 0.0002, 0.0001, 0.0001, 0.0003, 0.0003, 0.0109, 0.0109, 0.0079, 0.0079, 0.0099, 0.0099, 0.0207, 0.0207, 0.0101, 0.0101, 0.0401, 0.0401], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.88374843, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'L': 'r', 'M': 'c', 'N': 't', 'R': 'i', 'X': 'b', 'Y': 'a', 'Z': 'q'}, 'hinuma': {'\\Gamma': 'GAMMA', 'L': 'V_2', 'M': 'Z', 'N': 'R_2', 'R': 'T_2', 'X': 'Y_2', 'Y': 'X', 'Z': 'U_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'b': 'X', 'Γ': '\\Gamma', 'i': 'R', 'q': 'Z', 't': 'N', 'r': 'L', 'c': 'M', 'a': 'Y'}, 'hinuma': {'b': 'Y_2', 'Γ': 'GAMMA', 'i': 'T_2', 'q': 'U_2', 't': 'R_2', 'r': 'V_2', 'c': 'Z', 'a': 'X'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'M', 'Y_2': 'X', 'X': 'Y', 'V_2': 'L', 'U_2': 'Z', 'T_2': 'R', 'R_2': 'N', 'Y': 'X^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'Y_2': 'b', 'X': 'a', 'V_2': 'r', 'U_2': 'q', 'T_2': 'i', 'R_2': 't', 'Y': 'b^{*}'}}}, direct_gap=1.7923) hinuma=BandStructureSummaryData(task_id=MPID(mp-2165248), band_gap=1.7443, cbm={'band_index': {'1': [60]}, 'kpoint_index': [53], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc2db50&gt;, 'energy': 2.511, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0043, 0.0043, 0.0053, 0.0053, 0.0001, 0.0001, 0.0102, 0.0102, 0.0044, 0.0044, 0.0004, 0.0004, 0.0002, 0.0002, 0.0007, 0.0007], [0.0115, 0.0115, 0.0089, 0.0089, 0.0006, 0.0006, 0.011, 0.011, 0.0164, 0.0164, 0.0003, 0.0003, 0.0167, 0.0167, 0.0313, 0.0313, 0.0024, 0.0024, 0.0012, 0.0012, 0.0, 0.0], [0.0002, 0.0002, 0.0012, 0.0012, 0.0004, 0.0004, 0.0056, 0.0056, 0.0002, 0.0002, 0.0046, 0.0046, 0.0031, 0.0031, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0007, 0.0007], [0.0218, 0.0218, 0.0213, 0.0213, 0.002, 0.002, 0.0002, 0.0002, 0.0119, 0.0119, 0.0, 0.0, 0.0156, 0.0156, 0.0008, 0.0008, 0.0143, 0.0143, 0.0035, 0.0035, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [59]}, 'kpoint_index': [13], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc310a0&gt;, 'energy': 0.7667, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0003, 0.0003, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0008, 0.0008, 0.0, 0.0], [0.0016, 0.0016, 0.0065, 0.0065, 0.0002, 0.0002, 0.0022, 0.0022, 0.0061, 0.0061, 0.0006, 0.0006, 0.0002, 0.0002, 0.0002, 0.0002, 0.0023, 0.0023, 0.0238, 0.0238, 0.003, 0.003], [0.0002, 0.0002, 0.0004, 0.0004, 0.0001, 0.0001, 0.0007, 0.0007, 0.0021, 0.0021, 0.0005, 0.0005, 0.0006, 0.0006, 0.0003, 0.0003, 0.002, 0.002, 0.0002, 0.0002, 0.1036, 0.1036], [0.0162, 0.0162, 0.0068, 0.0068, 0.0002, 0.0002, 0.0001, 0.0001, 0.0003, 0.0003, 0.0109, 0.0109, 0.0079, 0.0079, 0.0099, 0.0099, 0.0207, 0.0207, 0.0101, 0.0101, 0.0401, 0.0401], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.85610275, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'L': 'r', 'M': 'c', 'N': 't', 'R': 'i', 'X': 'b', 'Y': 'a', 'Z': 'q'}, 'hinuma': {'\\Gamma': 'GAMMA', 'L': 'V_2', 'M': 'Z', 'N': 'R_2', 'R': 'T_2', 'X': 'Y_2', 'Y': 'X', 'Z': 'U_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'b': 'X', 'Γ': '\\Gamma', 'i': 'R', 'q': 'Z', 't': 'N', 'r': 'L', 'c': 'M', 'a': 'Y'}, 'hinuma': {'b': 'Y_2', 'Γ': 'GAMMA', 'i': 'T_2', 'q': 'U_2', 't': 'R_2', 'r': 'V_2', 'c': 'Z', 'a': 'X'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'M', 'Y_2': 'X', 'X': 'Y', 'V_2': 'L', 'U_2': 'Z', 'T_2': 'R', 'R_2': 'N', 'Y': 'X^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'Y_2': 'b', 'X': 'a', 'V_2': 'r', 'U_2': 'q', 'T_2': 'i', 'R_2': 't', 'Y': 'b^{*}'}}}, direct_gap=1.7923) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2609694), band_gap=1.7443, cbm={'band_index': {'1': [60]}, 'kpoint_index': [0], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc315b0&gt;, 'energy': 2.511, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0043, 0.0043, 0.0053, 0.0053, 0.0001, 0.0001, 0.0103, 0.0102, 0.0045, 0.0045, 0.0004, 0.0004, 0.0002, 0.0002, 0.0007, 0.0007], [0.0115, 0.0115, 0.0089, 0.0089, 0.0006, 0.0006, 0.011, 0.011, 0.0164, 0.0164, 0.0003, 0.0003, 0.0167, 0.0167, 0.0313, 0.0313, 0.0024, 0.0024, 0.0012, 0.0012, 0.0, 0.0], [0.0002, 0.0002, 0.0012, 0.0012, 0.0004, 0.0004, 0.0056, 0.0056, 0.0002, 0.0002, 0.0046, 0.0046, 0.0031, 0.0031, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0007, 0.0007], [0.0218, 0.0218, 0.0213, 0.0213, 0.002, 0.0019, 0.0002, 0.0002, 0.0119, 0.0119, 0.0, 0.0, 0.0156, 0.0156, 0.0008, 0.0008, 0.0143, 0.0143, 0.0035, 0.0035, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [59]}, 'kpoint_index': [46], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x30fc31ac0&gt;, 'energy': 0.7667, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0003, 0.0003, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0008, 0.0008, 0.0, 0.0], [0.0016, 0.0016, 0.0065, 0.0065, 0.0002, 0.0002, 0.0022, 0.0022, 0.0061, 0.0061, 0.0006, 0.0006, 0.0002, 0.0002, 0.0002, 0.0002, 0.0023, 0.0023, 0.0238, 0.0238, 0.003, 0.003], [0.0002, 0.0002, 0.0004, 0.0004, 0.0001, 0.0001, 0.0007, 0.0007, 0.0021, 0.0021, 0.0005, 0.0005, 0.0006, 0.0006, 0.0003, 0.0003, 0.002, 0.002, 0.0002, 0.0002, 0.1036, 0.1036], [0.0162, 0.0162, 0.0068, 0.0068, 0.0002, 0.0002, 0.0001, 0.0001, 0.0003, 0.0003, 0.0109, 0.0109, 0.0079, 0.0079, 0.0099, 0.0099, 0.0207, 0.0207, 0.0101, 0.0101, 0.0401, 0.0401], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.8526498, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'L': 'r', 'M': 'c', 'N': 't', 'R': 'i', 'X': 'b', 'Y': 'a', 'Z': 'q'}, 'hinuma': {'\\Gamma': 'GAMMA', 'L': 'V_2', 'M': 'Z', 'N': 'R_2', 'R': 'T_2', 'X': 'Y_2', 'Y': 'X', 'Z': 'U_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'b': 'X', 'Γ': '\\Gamma', 'i': 'R', 'q': 'Z', 't': 'N', 'r': 'L', 'c': 'M', 'a': 'Y'}, 'hinuma': {'b': 'Y_2', 'Γ': 'GAMMA', 'i': 'T_2', 'q': 'U_2', 't': 'R_2', 'r': 'V_2', 'c': 'Z', 'a': 'X'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'M', 'Y_2': 'X', 'X': 'Y', 'V_2': 'L', 'U_2': 'Z', 'T_2': 'R', 'R_2': 'N', 'Y': 'X^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'Y_2': 'b', 'X': 'a', 'V_2': 'r', 'U_2': 'q', 'T_2': 'i', 'R_2': 't', 'Y': 'b^{*}'}}}, direct_gap=1.7923)</t>
+    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1608212), band_gap=2.5569, cbm={'band_index': {'1': [44]}, 'kpoint_index': [16, 17, 93], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31e2a9280&gt;, 'energy': 2.157, 'projections': {'1': [[0.0, 0.0068, 0.0068, 0.0068, 0.0068, 0.0068, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0019, 0.0019, 0.0068], [0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0, 0.0304, 0.0076, 0.0076, 0.0304, 0.0076, 0.0076, 0.0, 0.0, 0.0001], [0.0001, 0.0082, 0.0108, 0.0108, 0.0108, 0.0082, 0.0, 0.0142, 0.0142, 0.0, 0.0142, 0.0142, 0.0005, 0.0005, 0.0108], [0.0001, 0.0182, 0.0155, 0.0155, 0.0155, 0.0182, 0.0, 0.0086, 0.0086, 0.0, 0.0086, 0.0086, 0.0008, 0.0008, 0.0155], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [43]}, 'kpoint_index': [58, 59], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31e2a9790&gt;, 'energy': -0.3999, 'projections': {'1': [[0.0, 0.0, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0007, 0.0007, 0.0, 0.0007, 0.0007, 0.0001, 0.0001, 0.0007], [0.0, 0.0, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0001, 0.0001, 0.0, 0.0001, 0.0001, 0.0, 0.0, 0.0002], [0.0002, 0.0436, 0.0003, 0.0003, 0.0003, 0.0436, 0.0005, 0.0217, 0.0217, 0.0005, 0.0217, 0.0217, 0.0003, 0.0003, 0.0003], [0.0005, 0.0564, 0.0196, 0.0196, 0.0196, 0.0564, 0.0871, 0.0063, 0.0063, 0.0871, 0.0063, 0.0063, 0.0, 0.0, 0.0196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-0.35151479, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'F': 'b', 'L': 'a', 'P': 'f', 'Q': 'g', 'Z': 'e', 'P_1': 'f^{*}', 'Q_1': 'g^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'F': 'F', 'L': 'L', 'P': 'M', 'P_1': 'M_2', 'Q': 'P_2', 'Q_1': 'R_0', 'Z': 'T'}}, 'latimer_munro': {'setyawan_curtarolo': {'g': 'Q', 'f': 'P', 'b': 'F', 'e': 'Z', 'Γ': '\\Gamma', 'a': 'L', 'd': 'd', 'd_{1}': 'd_{1}', 'g_{1}': 'Q^{*}'}, 'hinuma': {'g': 'P_2', 'f': 'M', 'b': 'F', 'e': 'T', 'Γ': 'GAMMA', 'a': 'L', 'g_{1}': 'P_0', 'd': 'd', 'd_{1}': 'd_{1}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'T': 'Z', 'P_2': 'Q', 'R_0': 'Q_1', 'M': 'P', 'M_2': 'P_1', 'L': 'L', 'F': 'F', 'P_0': 'Q^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'T': 'e', 'P_0': 'g_{1}', 'P_2': 'g', 'M': 'f', 'L': 'a', 'F': 'b', 'R_0': 'g^{*}', 'M_2': 'f^{*}'}}}, direct_gap=2.6489000000000003) hinuma=BandStructureSummaryData(task_id=MPID(mp-2076527), band_gap=2.5569, cbm={'band_index': {'1': [44]}, 'kpoint_index': [20, 21], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31e2a9ca0&gt;, 'energy': 2.157, 'projections': {'1': [[0.0, 0.0068, 0.0068, 0.0068, 0.0068, 0.0068, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0019, 0.0019, 0.0068], [0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0, 0.0303, 0.0076, 0.0076, 0.0303, 0.0076, 0.0076, 0.0, 0.0, 0.0001], [0.0001, 0.0082, 0.0108, 0.0108, 0.0108, 0.0082, 0.0, 0.0142, 0.0142, 0.0, 0.0142, 0.0142, 0.0005, 0.0005, 0.0108], [0.0001, 0.0182, 0.0155, 0.0155, 0.0155, 0.0182, 0.0, 0.0086, 0.0086, 0.0, 0.0086, 0.0086, 0.0008, 0.0008, 0.0155], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [43]}, 'kpoint_index': [49], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31e2ae1f0&gt;, 'energy': -0.3999, 'projections': {'1': [[0.0, 0.0, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0007, 0.0007, 0.0, 0.0007, 0.0007, 0.0001, 0.0001, 0.0007], [0.0, 0.0, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0001, 0.0001, 0.0, 0.0001, 0.0001, 0.0, 0.0, 0.0002], [0.0002, 0.0436, 0.0003, 0.0003, 0.0003, 0.0436, 0.0005, 0.0217, 0.0217, 0.0005, 0.0217, 0.0217, 0.0003, 0.0003, 0.0003], [0.0005, 0.0564, 0.0196, 0.0196, 0.0196, 0.0564, 0.0871, 0.0063, 0.0063, 0.0871, 0.0063, 0.0063, 0.0, 0.0, 0.0196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-0.28177322, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'F': 'b', 'L': 'a', 'P': 'f', 'Q': 'g', 'Z': 'e', 'P_1': 'f^{*}', 'Q_1': 'g^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'F': 'F', 'L': 'L', 'P': 'M', 'P_1': 'M_2', 'Q': 'P_2', 'Q_1': 'R_0', 'Z': 'T'}}, 'latimer_munro': {'setyawan_curtarolo': {'g': 'Q', 'f': 'P', 'b': 'F', 'e': 'Z', 'Γ': '\\Gamma', 'a': 'L', 'd': 'd', 'd_{1}': 'd_{1}', 'g_{1}': 'Q^{*}'}, 'hinuma': {'g': 'P_2', 'f': 'M', 'b': 'F', 'e': 'T', 'Γ': 'GAMMA', 'a': 'L', 'g_{1}': 'P_0', 'd': 'd', 'd_{1}': 'd_{1}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'T': 'Z', 'P_2': 'Q', 'R_0': 'Q_1', 'M': 'P', 'M_2': 'P_1', 'L': 'L', 'F': 'F', 'P_0': 'Q^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'T': 'e', 'P_0': 'g_{1}', 'P_2': 'g', 'M': 'f', 'L': 'a', 'F': 'b', 'R_0': 'g^{*}', 'M_2': 'f^{*}'}}}, direct_gap=2.6489000000000003) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2689264), band_gap=2.5569, cbm={'band_index': {'1': [44]}, 'kpoint_index': [0, 19, 20, 87, 88], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31e2ae700&gt;, 'energy': 2.157, 'projections': {'1': [[0.0, 0.0068, 0.0068, 0.0068, 0.0068, 0.0068, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0092, 0.0019, 0.0019, 0.0068], [0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0, 0.0304, 0.0076, 0.0076, 0.0304, 0.0076, 0.0076, 0.0, 0.0, 0.0001], [0.0001, 0.0082, 0.0108, 0.0108, 0.0108, 0.0082, 0.0, 0.0142, 0.0142, 0.0, 0.0142, 0.0142, 0.0005, 0.0005, 0.0108], [0.0001, 0.0182, 0.0155, 0.0155, 0.0155, 0.0182, 0.0, 0.0086, 0.0086, 0.0, 0.0086, 0.0086, 0.0008, 0.0008, 0.0155], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [43]}, 'kpoint_index': [10, 11, 144, 145, 154], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f894460&gt;, 'energy': -0.3999, 'projections': {'1': [[0.0, 0.0, 0.0007, 0.0007, 0.0007, 0.0, 0.0, 0.0007, 0.0007, 0.0, 0.0007, 0.0007, 0.0001, 0.0001, 0.0007], [0.0, 0.0, 0.0002, 0.0002, 0.0002, 0.0, 0.0, 0.0001, 0.0001, 0.0, 0.0001, 0.0001, 0.0, 0.0, 0.0002], [0.0002, 0.0436, 0.0003, 0.0003, 0.0003, 0.0435, 0.0005, 0.0217, 0.0217, 0.0005, 0.0217, 0.0217, 0.0003, 0.0003, 0.0003], [0.0005, 0.0564, 0.0196, 0.0196, 0.0196, 0.0564, 0.0871, 0.0063, 0.0063, 0.0871, 0.0063, 0.0063, 0.0, 0.0, 0.0196], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=-0.26854821, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'F': 'b', 'L': 'a', 'P': 'f', 'Q': 'g', 'Z': 'e', 'P_1': 'f^{*}', 'Q_1': 'g^{*}'}, 'hinuma': {'\\Gamma': 'GAMMA', 'F': 'F', 'L': 'L', 'P': 'M', 'P_1': 'M_2', 'Q': 'P_2', 'Q_1': 'R_0', 'Z': 'T'}}, 'latimer_munro': {'setyawan_curtarolo': {'g': 'Q', 'f': 'P', 'b': 'F', 'e': 'Z', 'Γ': '\\Gamma', 'a': 'L', 'd': 'd', 'd_{1}': 'd_{1}', 'g_{1}': 'Q^{*}'}, 'hinuma': {'g': 'P_2', 'f': 'M', 'b': 'F', 'e': 'T', 'Γ': 'GAMMA', 'a': 'L', 'g_{1}': 'P_0', 'd': 'd', 'd_{1}': 'd_{1}'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'T': 'Z', 'P_2': 'Q', 'R_0': 'Q_1', 'M': 'P', 'M_2': 'P_1', 'L': 'L', 'F': 'F', 'P_0': 'Q^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'T': 'e', 'P_0': 'g_{1}', 'P_2': 'g', 'M': 'f', 'L': 'a', 'F': 'b', 'R_0': 'g^{*}', 'M_2': 'f^{*}'}}}, direct_gap=2.6489000000000003)</t>
+  </si>
+  <si>
+    <t>setyawan_curtarolo=BandStructureSummaryData(task_id=MPID(mp-1617599), band_gap=1.7443, cbm={'band_index': {'1': [60]}, 'kpoint_index': [75], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f8b40d0&gt;, 'energy': 2.511, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0043, 0.0043, 0.0053, 0.0053, 0.0001, 0.0001, 0.0102, 0.0103, 0.0044, 0.0045, 0.0004, 0.0004, 0.0002, 0.0002, 0.0007, 0.0007], [0.0115, 0.0115, 0.0089, 0.0089, 0.0006, 0.0006, 0.011, 0.011, 0.0164, 0.0164, 0.0003, 0.0003, 0.0167, 0.0167, 0.0313, 0.0313, 0.0024, 0.0024, 0.0012, 0.0012, 0.0, 0.0], [0.0002, 0.0002, 0.0011, 0.0011, 0.0004, 0.0004, 0.0056, 0.0056, 0.0002, 0.0002, 0.0046, 0.0046, 0.0031, 0.0031, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0007, 0.0007], [0.0218, 0.0218, 0.0213, 0.0213, 0.002, 0.002, 0.0002, 0.0002, 0.0119, 0.0119, 0.0, 0.0, 0.0156, 0.0156, 0.0008, 0.0008, 0.0143, 0.0143, 0.0035, 0.0035, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [59]}, 'kpoint_index': [21], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f8b4f70&gt;, 'energy': 0.7667, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0003, 0.0003, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0008, 0.0008, 0.0, 0.0], [0.0016, 0.0016, 0.0065, 0.0065, 0.0002, 0.0002, 0.0022, 0.0022, 0.0061, 0.0061, 0.0006, 0.0006, 0.0002, 0.0002, 0.0002, 0.0002, 0.0023, 0.0023, 0.0238, 0.0238, 0.003, 0.003], [0.0002, 0.0002, 0.0004, 0.0004, 0.0001, 0.0001, 0.0007, 0.0007, 0.0021, 0.0021, 0.0005, 0.0005, 0.0006, 0.0006, 0.0003, 0.0003, 0.002, 0.002, 0.0002, 0.0002, 0.1036, 0.1036], [0.0162, 0.0162, 0.0068, 0.0068, 0.0002, 0.0002, 0.0001, 0.0001, 0.0003, 0.0003, 0.0109, 0.0109, 0.0079, 0.0079, 0.0099, 0.0099, 0.0207, 0.0207, 0.0101, 0.0101, 0.0401, 0.0401], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.88374843, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'L': 'r', 'M': 'c', 'N': 't', 'R': 'i', 'X': 'b', 'Y': 'a', 'Z': 'q'}, 'hinuma': {'\\Gamma': 'GAMMA', 'L': 'V_2', 'M': 'Z', 'N': 'R_2', 'R': 'T_2', 'X': 'Y_2', 'Y': 'X', 'Z': 'U_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'b': 'X', 'Γ': '\\Gamma', 'i': 'R', 'q': 'Z', 't': 'N', 'r': 'L', 'c': 'M', 'a': 'Y'}, 'hinuma': {'b': 'Y_2', 'Γ': 'GAMMA', 'i': 'T_2', 'q': 'U_2', 't': 'R_2', 'r': 'V_2', 'c': 'Z', 'a': 'X'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'M', 'Y_2': 'X', 'X': 'Y', 'V_2': 'L', 'U_2': 'Z', 'T_2': 'R', 'R_2': 'N', 'Y': 'X^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'Y_2': 'b', 'X': 'a', 'V_2': 'r', 'U_2': 'q', 'T_2': 'i', 'R_2': 't', 'Y': 'b^{*}'}}}, direct_gap=1.7923) hinuma=BandStructureSummaryData(task_id=MPID(mp-2165248), band_gap=1.7443, cbm={'band_index': {'1': [60]}, 'kpoint_index': [53], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f8bd4c0&gt;, 'energy': 2.511, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0043, 0.0043, 0.0053, 0.0053, 0.0001, 0.0001, 0.0102, 0.0102, 0.0044, 0.0044, 0.0004, 0.0004, 0.0002, 0.0002, 0.0007, 0.0007], [0.0115, 0.0115, 0.0089, 0.0089, 0.0006, 0.0006, 0.011, 0.011, 0.0164, 0.0164, 0.0003, 0.0003, 0.0167, 0.0167, 0.0313, 0.0313, 0.0024, 0.0024, 0.0012, 0.0012, 0.0, 0.0], [0.0002, 0.0002, 0.0012, 0.0012, 0.0004, 0.0004, 0.0056, 0.0056, 0.0002, 0.0002, 0.0046, 0.0046, 0.0031, 0.0031, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0007, 0.0007], [0.0218, 0.0218, 0.0213, 0.0213, 0.002, 0.002, 0.0002, 0.0002, 0.0119, 0.0119, 0.0, 0.0, 0.0156, 0.0156, 0.0008, 0.0008, 0.0143, 0.0143, 0.0035, 0.0035, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [59]}, 'kpoint_index': [13], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f8bd9d0&gt;, 'energy': 0.7667, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0003, 0.0003, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0008, 0.0008, 0.0, 0.0], [0.0016, 0.0016, 0.0065, 0.0065, 0.0002, 0.0002, 0.0022, 0.0022, 0.0061, 0.0061, 0.0006, 0.0006, 0.0002, 0.0002, 0.0002, 0.0002, 0.0023, 0.0023, 0.0238, 0.0238, 0.003, 0.003], [0.0002, 0.0002, 0.0004, 0.0004, 0.0001, 0.0001, 0.0007, 0.0007, 0.0021, 0.0021, 0.0005, 0.0005, 0.0006, 0.0006, 0.0003, 0.0003, 0.002, 0.002, 0.0002, 0.0002, 0.1036, 0.1036], [0.0162, 0.0162, 0.0068, 0.0068, 0.0002, 0.0002, 0.0001, 0.0001, 0.0003, 0.0003, 0.0109, 0.0109, 0.0079, 0.0079, 0.0099, 0.0099, 0.0207, 0.0207, 0.0101, 0.0101, 0.0401, 0.0401], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.85610275, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'L': 'r', 'M': 'c', 'N': 't', 'R': 'i', 'X': 'b', 'Y': 'a', 'Z': 'q'}, 'hinuma': {'\\Gamma': 'GAMMA', 'L': 'V_2', 'M': 'Z', 'N': 'R_2', 'R': 'T_2', 'X': 'Y_2', 'Y': 'X', 'Z': 'U_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'b': 'X', 'Γ': '\\Gamma', 'i': 'R', 'q': 'Z', 't': 'N', 'r': 'L', 'c': 'M', 'a': 'Y'}, 'hinuma': {'b': 'Y_2', 'Γ': 'GAMMA', 'i': 'T_2', 'q': 'U_2', 't': 'R_2', 'r': 'V_2', 'c': 'Z', 'a': 'X'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'M', 'Y_2': 'X', 'X': 'Y', 'V_2': 'L', 'U_2': 'Z', 'T_2': 'R', 'R_2': 'N', 'Y': 'X^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'Y_2': 'b', 'X': 'a', 'V_2': 'r', 'U_2': 'q', 'T_2': 'i', 'R_2': 't', 'Y': 'b^{*}'}}}, direct_gap=1.7923) latimer_munro=BandStructureSummaryData(task_id=MPID(mp-2609694), band_gap=1.7443, cbm={'band_index': {'1': [60]}, 'kpoint_index': [0], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f8bdee0&gt;, 'energy': 2.511, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0043, 0.0043, 0.0053, 0.0053, 0.0001, 0.0001, 0.0103, 0.0102, 0.0045, 0.0045, 0.0004, 0.0004, 0.0002, 0.0002, 0.0007, 0.0007], [0.0115, 0.0115, 0.0089, 0.0089, 0.0006, 0.0006, 0.011, 0.011, 0.0164, 0.0164, 0.0003, 0.0003, 0.0167, 0.0167, 0.0313, 0.0313, 0.0024, 0.0024, 0.0012, 0.0012, 0.0, 0.0], [0.0002, 0.0002, 0.0012, 0.0012, 0.0004, 0.0004, 0.0056, 0.0056, 0.0002, 0.0002, 0.0046, 0.0046, 0.0031, 0.0031, 0.0001, 0.0001, 0.0, 0.0, 0.0, 0.0, 0.0007, 0.0007], [0.0218, 0.0218, 0.0213, 0.0213, 0.002, 0.0019, 0.0002, 0.0002, 0.0119, 0.0119, 0.0, 0.0, 0.0156, 0.0156, 0.0008, 0.0008, 0.0143, 0.0143, 0.0035, 0.0035, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, vbm={'band_index': {'1': [59]}, 'kpoint_index': [46], 'kpoint': &lt;pymatgen.electronic_structure.bandstructure.Kpoint object at 0x31f8c2430&gt;, 'energy': 0.7667, 'projections': {'1': [[0.0, 0.0, 0.0, 0.0, 0.0001, 0.0001, 0.0001, 0.0001, 0.0003, 0.0003, 0.0001, 0.0001, 0.0002, 0.0002, 0.0002, 0.0002, 0.0001, 0.0001, 0.0008, 0.0008, 0.0, 0.0], [0.0016, 0.0016, 0.0065, 0.0065, 0.0002, 0.0002, 0.0022, 0.0022, 0.0061, 0.0061, 0.0006, 0.0006, 0.0002, 0.0002, 0.0002, 0.0002, 0.0023, 0.0023, 0.0238, 0.0238, 0.003, 0.003], [0.0002, 0.0002, 0.0004, 0.0004, 0.0001, 0.0001, 0.0007, 0.0007, 0.0021, 0.0021, 0.0005, 0.0005, 0.0006, 0.0006, 0.0003, 0.0003, 0.002, 0.002, 0.0002, 0.0002, 0.1036, 0.1036], [0.0162, 0.0162, 0.0068, 0.0068, 0.0002, 0.0002, 0.0001, 0.0001, 0.0003, 0.0003, 0.0109, 0.0109, 0.0079, 0.0079, 0.0099, 0.0099, 0.0207, 0.0207, 0.0101, 0.0101, 0.0401, 0.0401], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0], [0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0, 0.0]]}}, efermi=0.8526498, is_gap_direct=False, is_metal=False, magnetic_ordering='NM', nbands=96.0, equivalent_labels={'setyawan_curtarolo': {'latimer_munro': {'\\Gamma': 'Γ', 'L': 'r', 'M': 'c', 'N': 't', 'R': 'i', 'X': 'b', 'Y': 'a', 'Z': 'q'}, 'hinuma': {'\\Gamma': 'GAMMA', 'L': 'V_2', 'M': 'Z', 'N': 'R_2', 'R': 'T_2', 'X': 'Y_2', 'Y': 'X', 'Z': 'U_2'}}, 'latimer_munro': {'setyawan_curtarolo': {'b': 'X', 'Γ': '\\Gamma', 'i': 'R', 'q': 'Z', 't': 'N', 'r': 'L', 'c': 'M', 'a': 'Y'}, 'hinuma': {'b': 'Y_2', 'Γ': 'GAMMA', 'i': 'T_2', 'q': 'U_2', 't': 'R_2', 'r': 'V_2', 'c': 'Z', 'a': 'X'}}, 'hinuma': {'setyawan_curtarolo': {'GAMMA': '\\Gamma', 'Z': 'M', 'Y_2': 'X', 'X': 'Y', 'V_2': 'L', 'U_2': 'Z', 'T_2': 'R', 'R_2': 'N', 'Y': 'X^{*}'}, 'latimer_munro': {'GAMMA': 'Γ', 'Z': 'c', 'Y_2': 'b', 'X': 'a', 'V_2': 'r', 'U_2': 'q', 'T_2': 'i', 'R_2': 't', 'Y': 'b^{*}'}}}, direct_gap=1.7923)</t>
   </si>
   <si>
     <t>emmet_version='0.72.20' pymatgen_version='2023.11.12' pull_request=990 database_version='2023.11.1' build_date=datetime.datetime(2023, 11, 22, 19, 38, 37, 616000) license='BY-C'</t>
@@ -580,7 +583,7 @@
     <t>{'builder_meta': FieldInfo(annotation=Union[EmmetMeta, NoneType], required=False, json_schema_extra={}), 'nsites': FieldInfo(annotation=Union[int, NoneType], required=False, json_schema_extra={}), 'elements': FieldInfo(annotation=Union[List[pymatgen.core.periodic_table.Element], NoneType], required=False, json_schema_extra={}), 'nelements': FieldInfo(annotation=Union[int, NoneType], required=False, json_schema_extra={}), 'composition': FieldInfo(annotation=Union[Composition, NoneType], required=False, json_schema_extra={}), 'composition_reduced': FieldInfo(annotation=Union[Composition, NoneType], required=False, json_schema_extra={}), 'formula_pretty': FieldInfo(annotation=Union[str, NoneType], required=False, json_schema_extra={}), 'formula_anonymous': FieldInfo(annotation=Union[str, NoneType], required=False, json_schema_extra={}), 'chemsys': FieldInfo(annotation=Union[str, NoneType], required=False, json_schema_extra={}), 'volume': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'density': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'density_atomic': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'symmetry': FieldInfo(annotation=Union[SymmetryData, NoneType], required=False, json_schema_extra={}), 'property_name': FieldInfo(annotation=Union[str, NoneType], required=False, json_schema_extra={}), 'material_id': FieldInfo(annotation=Union[MPID, NoneType], required=False, json_schema_extra={}), 'deprecated': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'deprecation_reasons': FieldInfo(annotation=Union[List[Union[emmet.core.vasp.validation.DeprecationMessage, str]], NoneType], required=False, json_schema_extra={}), 'last_updated': FieldInfo(annotation=Union[datetime, NoneType], required=False, json_schema_extra={}), 'origins': FieldInfo(annotation=Union[Sequence[emmet.core.material.PropertyOrigin], NoneType], required=False, json_schema_extra={}), 'warnings': FieldInfo(annotation=Union[Sequence[str], NoneType], required=False, json_schema_extra={}), 'structure': FieldInfo(annotation=Union[Structure, NoneType], required=False, json_schema_extra={}), 'task_ids': FieldInfo(annotation=Union[List[emmet.core.mpid.MPID], NoneType], required=False, json_schema_extra={}), 'uncorrected_energy_per_atom': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'energy_per_atom': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'formation_energy_per_atom': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'energy_above_hull': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'is_stable': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'equilibrium_reaction_energy_per_atom': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'decomposes_to': FieldInfo(annotation=Union[List[emmet.core.thermo.DecompositionProduct], NoneType], required=False, json_schema_extra={}), 'xas': FieldInfo(annotation=Union[List[emmet.core.summary.XASSearchData], NoneType], required=False, json_schema_extra={}), 'grain_boundaries': FieldInfo(annotation=Union[List[emmet.core.summary.GBSearchData], NoneType], required=False, json_schema_extra={}), 'band_gap': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'cbm': FieldInfo(annotation=Union[float, Dict, NoneType], required=False, json_schema_extra={}), 'vbm': FieldInfo(annotation=Union[float, Dict, NoneType], required=False, json_schema_extra={}), 'efermi': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'is_gap_direct': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'is_metal': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'es_source_calc_id': FieldInfo(annotation=Union[MPID, int, NoneType], required=False, json_schema_extra={}), 'bandstructure': FieldInfo(annotation=Union[BandstructureData, NoneType], required=False, json_schema_extra={}), 'dos': FieldInfo(annotation=Union[DosData, NoneType], required=False, json_schema_extra={}), 'dos_energy_up': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'dos_energy_down': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'is_magnetic': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'ordering': FieldInfo(annotation=Union[str, NoneType], required=False, json_schema_extra={}), 'total_magnetization': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'total_magnetization_normalized_vol': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'total_magnetization_normalized_formula_units': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'num_magnetic_sites': FieldInfo(annotation=Union[int, NoneType], required=False, json_schema_extra={}), 'num_unique_magnetic_sites': FieldInfo(annotation=Union[int, NoneType], required=False, json_schema_extra={}), 'types_of_magnetic_species': FieldInfo(annotation=Union[List[pymatgen.core.periodic_table.Element], NoneType], required=False, json_schema_extra={}), 'bulk_modulus': FieldInfo(annotation=Union[dict, NoneType], required=False, json_schema_extra={}), 'shear_modulus': FieldInfo(annotation=Union[dict, NoneType], required=False, json_schema_extra={}), 'universal_anisotropy': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'homogeneous_poisson': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'e_total': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'e_ionic': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'e_electronic': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'n': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'e_ij_max': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'weighted_surface_energy_EV_PER_ANG2': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'weighted_surface_energy': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'weighted_work_function': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'surface_anisotropy': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'shape_factor': FieldInfo(annotation=Union[float, NoneType], required=False, json_schema_extra={}), 'has_reconstructed': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'possible_species': FieldInfo(annotation=Union[List[str], NoneType], required=False, json_schema_extra={}), 'has_props': FieldInfo(annotation=Union[Dict[str, bool], NoneType], required=False, json_schema_extra={}), 'theoretical': FieldInfo(annotation=Union[bool, NoneType], required=False, json_schema_extra={}), 'database_IDs': FieldInfo(annotation=Union[Dict[str, List[str]], NoneType], required=False, json_schema_extra={}), 'fields_not_requested': FieldInfo(annotation=list[str], required=False, default=[])}</t>
   </si>
   <si>
-    <t>{'homogeneous_poisson', 'origins', 'weighted_surface_energy', 'symmetry', 'total_magnetization', 'warnings', 'is_magnetic', 'cbm', 'n', 'num_magnetic_sites', 'composition', 'material_id', 'shear_modulus', 'has_reconstructed', 'density_atomic', 'elements', 'weighted_surface_energy_EV_PER_ANG2', 'formula_pretty', 'types_of_magnetic_species', 'composition_reduced', 'structure', 'band_gap', 'deprecation_reasons', 'deprecated', 'energy_above_hull', 'possible_species', 'is_stable', 'bulk_modulus', 'uncorrected_energy_per_atom', 'es_source_calc_id', 'decomposes_to', 'vbm', 'builder_meta', 'property_name', 'theoretical', 'is_metal', 'ordering', 'total_magnetization_normalized_vol', 'num_unique_magnetic_sites', 'e_electronic', 'surface_anisotropy', 'volume', 'density', 'efermi', 'bandstructure', 'total_magnetization_normalized_formula_units', 'xas', 'e_total', 'energy_per_atom', 'formation_energy_per_atom', 'chemsys', 'equilibrium_reaction_energy_per_atom', 'universal_anisotropy', 'e_ionic', 'shape_factor', 'weighted_work_function', 'has_props', 'grain_boundaries', 'nsites', 'is_gap_direct', 'nelements', 'dos_energy_down', 'dos_energy_up', 'last_updated', 'dos', 'database_IDs', 'e_ij_max', 'formula_anonymous', 'task_ids'}</t>
+    <t>{'energy_above_hull', 'shape_factor', 'formula_pretty', 'is_stable', 'universal_anisotropy', 'surface_anisotropy', 'composition_reduced', 'property_name', 'num_magnetic_sites', 'density', 'possible_species', 'xas', 'types_of_magnetic_species', 'shear_modulus', 'e_ij_max', 'warnings', 'vbm', 'bulk_modulus', 'volume', 'efermi', 'e_electronic', 'task_ids', 'density_atomic', 'energy_per_atom', 'theoretical', 'grain_boundaries', 'is_metal', 'material_id', 'ordering', 'builder_meta', 'elements', 'band_gap', 'nelements', 'uncorrected_energy_per_atom', 'chemsys', 'origins', 'dos_energy_down', 'dos', 'total_magnetization_normalized_vol', 'weighted_surface_energy_EV_PER_ANG2', 'structure', 'is_gap_direct', 'n', 'deprecated', 'total_magnetization', 'weighted_work_function', 'equilibrium_reaction_energy_per_atom', 'num_unique_magnetic_sites', 'deprecation_reasons', 'is_magnetic', 'cbm', 'last_updated', 'dos_energy_up', 'e_total', 'formula_anonymous', 'es_source_calc_id', 'total_magnetization_normalized_formula_units', 'symmetry', 'e_ionic', 'formation_energy_per_atom', 'homogeneous_poisson', 'weighted_surface_energy', 'decomposes_to', 'has_props', 'composition', 'nsites', 'database_IDs', 'bandstructure', 'has_reconstructed'}</t>
   </si>
   <si>
     <t>NM</t>
@@ -1366,6 +1369,42 @@
   </si>
   <si>
     <t>[XASSearchData(edge=&lt;Edge.K: 'K'&gt;, absorbing_element=Element C, spectrum_type=&lt;Type.XANES: 'XANES'&gt;), XASSearchData(edge=&lt;Edge.K: 'K'&gt;, absorbing_element=Element C, spectrum_type=&lt;Type.XAFS: 'XAFS'&gt;), XASSearchData(edge=&lt;Edge.K: 'K'&gt;, absorbing_element=Element S, spectrum_type=&lt;Type.XAFS: 'XAFS'&gt;), XASSearchData(edge=&lt;Edge.K: 'K'&gt;, absorbing_element=Element S, spectrum_type=&lt;Type.XANES: 'XANES'&gt;), XASSearchData(edge=&lt;Edge.K: 'K'&gt;, absorbing_element=Element C, spectrum_type=&lt;Type.EXAFS: 'EXAFS'&gt;), XASSearchData(edge=&lt;Edge.K: 'K'&gt;, absorbing_element=Element S, spectrum_type=&lt;Type.EXAFS: 'EXAFS'&gt;)]</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d4fa</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d4fb</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d4fc</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d4fd</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d4fe</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d4ff</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d500</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d501</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d502</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d503</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d504</t>
+  </si>
+  <si>
+    <t>6634f83c036ac3595fa5d505</t>
   </si>
 </sst>
 </file>
@@ -1727,13 +1766,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY13"/>
+  <dimension ref="A1:BZ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:78">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,40 +2004,43 @@
       <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:78">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>3.4316</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2">
         <v>1.2681</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M2">
         <v>1.17567033905451</v>
@@ -2010,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X2">
         <v>-2.11786231</v>
       </c>
       <c r="Y2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z2">
         <v>0.2257986492857142</v>
@@ -2025,19 +2067,19 @@
         <v>-5.8985451</v>
       </c>
       <c r="AD2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE2">
         <v>-0.06341689083333317</v>
       </c>
       <c r="AF2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AI2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL2" t="b">
         <v>1</v>
@@ -2055,19 +2097,19 @@
         <v>45252.81849092593</v>
       </c>
       <c r="AQ2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AR2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX2">
         <v>2</v>
@@ -2082,25 +2124,25 @@
         <v>0</v>
       </c>
       <c r="BB2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BD2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BE2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BJ2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BK2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BL2" t="b">
         <v>0</v>
@@ -2115,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="BP2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ2">
         <v>-5.563211766666666</v>
@@ -2127,45 +2169,48 @@
         <v>215.0851351918107</v>
       </c>
       <c r="BU2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BY2" t="s">
-        <v>250</v>
+        <v>251</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:78">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0.1161</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G3">
         <v>0.2753</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M3">
         <v>1.571408934437885</v>
@@ -2177,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X3">
         <v>0.23015613</v>
       </c>
       <c r="Y3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z3">
         <v>0.6584704326339281</v>
@@ -2192,19 +2237,19 @@
         <v>-5.07783309875</v>
       </c>
       <c r="AD3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE3">
         <v>0.3331029500000007</v>
       </c>
       <c r="AF3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AI3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL3" t="b">
         <v>0</v>
@@ -2222,19 +2267,19 @@
         <v>45252.82225881945</v>
       </c>
       <c r="AQ3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AR3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX3">
         <v>2</v>
@@ -2249,25 +2294,25 @@
         <v>0</v>
       </c>
       <c r="BB3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BD3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="BE3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BJ3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BK3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BL3" t="b">
         <v>0</v>
@@ -2282,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="BP3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ3">
         <v>-4.70058309875</v>
@@ -2294,39 +2339,42 @@
         <v>1829.489835686327</v>
       </c>
       <c r="BU3" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:78">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>0.01920000000000055</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G4">
         <v>-4.3095</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M4">
         <v>0.3403158388501585</v>
@@ -2341,7 +2389,7 @@
         <v>-4.31745982</v>
       </c>
       <c r="Y4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z4">
         <v>0.9393401009677431</v>
@@ -2350,19 +2398,19 @@
         <v>-3.559143088064516</v>
       </c>
       <c r="AD4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE4">
         <v>0.7434198963709685</v>
       </c>
       <c r="AF4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AI4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL4" t="b">
         <v>1</v>
@@ -2380,19 +2428,19 @@
         <v>45252.82283111111</v>
       </c>
       <c r="AQ4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AR4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX4">
         <v>2</v>
@@ -2407,25 +2455,25 @@
         <v>8</v>
       </c>
       <c r="BB4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BD4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BE4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BJ4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BK4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BL4" t="b">
         <v>1</v>
@@ -2440,7 +2488,7 @@
         <v>0.005720789822125739</v>
       </c>
       <c r="BP4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BQ4">
         <v>-3.072368894516129</v>
@@ -2452,39 +2500,42 @@
         <v>4752.349456162637</v>
       </c>
       <c r="BU4" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:78">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M5">
         <v>2.791271420818031</v>
@@ -2496,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X5">
         <v>6.89527159</v>
       </c>
       <c r="Y5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z5">
         <v>1.347160340089285</v>
@@ -2511,19 +2562,19 @@
         <v>-5.553263845</v>
       </c>
       <c r="AD5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE5">
         <v>1.130248685</v>
       </c>
       <c r="AF5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AI5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL5" t="b">
         <v>0</v>
@@ -2541,19 +2592,19 @@
         <v>45252.82316767361</v>
       </c>
       <c r="AQ5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX5">
         <v>2</v>
@@ -2568,25 +2619,25 @@
         <v>0</v>
       </c>
       <c r="BB5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="BD5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BE5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BJ5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BK5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BL5" t="b">
         <v>1</v>
@@ -2601,7 +2652,7 @@
         <v>2.456063666479078E-06</v>
       </c>
       <c r="BP5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ5">
         <v>-5.301763845</v>
@@ -2610,39 +2661,42 @@
         <v>52.44163730683859</v>
       </c>
       <c r="BU5" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:78">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>0.5398999999999994</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6">
         <v>-3.7583</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M6">
         <v>0.4752486850200807</v>
@@ -2657,7 +2711,7 @@
         <v>-4.02084641</v>
       </c>
       <c r="Y6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z6">
         <v>0.6799678195238092</v>
@@ -2666,19 +2720,19 @@
         <v>-4.668295493958333</v>
       </c>
       <c r="AD6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE6">
         <v>0.3184483943750009</v>
       </c>
       <c r="AF6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AI6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL6" t="b">
         <v>0</v>
@@ -2696,19 +2750,19 @@
         <v>45252.82402631945</v>
       </c>
       <c r="AQ6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AR6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX6">
         <v>2</v>
@@ -2723,25 +2777,25 @@
         <v>2</v>
       </c>
       <c r="BB6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BC6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="BD6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="BE6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BJ6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BK6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BL6" t="b">
         <v>1</v>
@@ -2756,7 +2810,7 @@
         <v>0.001662253054834144</v>
       </c>
       <c r="BP6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BQ6">
         <v>-4.249128827291666</v>
@@ -2768,39 +2822,42 @@
         <v>4817.185973407013</v>
       </c>
       <c r="BU6" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:78">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>2.5569</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>2.157</v>
       </c>
       <c r="H7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M7">
         <v>1.866773689908366</v>
@@ -2812,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T7">
         <v>3.124867753333334</v>
@@ -2827,7 +2884,7 @@
         <v>-0.35151479</v>
       </c>
       <c r="Y7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2839,19 +2896,19 @@
         <v>-0.4049017561666659</v>
       </c>
       <c r="AD7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE7">
         <v>-0.404901756166665</v>
       </c>
       <c r="AF7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AI7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL7" t="b">
         <v>0</v>
@@ -2869,19 +2926,19 @@
         <v>45252.82685760417</v>
       </c>
       <c r="AQ7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AR7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AW7">
         <v>1.76772954756471</v>
@@ -2899,25 +2956,25 @@
         <v>0</v>
       </c>
       <c r="BB7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BD7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="BE7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BJ7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BK7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BL7" t="b">
         <v>0</v>
@@ -2932,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="BP7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ7">
         <v>-8.105466712</v>
@@ -2944,42 +3001,45 @@
         <v>409.9997943468919</v>
       </c>
       <c r="BU7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BY7" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:78">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>1.8808</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8">
         <v>3.3846</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M8">
         <v>1.798210208865677</v>
@@ -2994,7 +3054,7 @@
         <v>1.50377068</v>
       </c>
       <c r="Y8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z8">
         <v>0.274819690607143</v>
@@ -3003,19 +3063,19 @@
         <v>-6.159956233</v>
       </c>
       <c r="AD8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE8">
         <v>0.01452570450000081</v>
       </c>
       <c r="AF8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL8" t="b">
         <v>0</v>
@@ -3033,19 +3093,19 @@
         <v>45252.82305950231</v>
       </c>
       <c r="AQ8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AR8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX8">
         <v>2</v>
@@ -3060,25 +3120,25 @@
         <v>0</v>
       </c>
       <c r="BB8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BD8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BE8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BJ8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BK8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BL8" t="b">
         <v>1</v>
@@ -3093,7 +3153,7 @@
         <v>1.774572998798233E-06</v>
       </c>
       <c r="BP8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ8">
         <v>-5.858156233</v>
@@ -3105,39 +3165,42 @@
         <v>444.0504845580571</v>
       </c>
       <c r="BU8" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:78">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>2.5888</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G9">
         <v>3.3749</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M9">
         <v>1.541731628773802</v>
@@ -3152,7 +3215,7 @@
         <v>3.37484392</v>
       </c>
       <c r="Y9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z9">
         <v>0.2817760486011904</v>
@@ -3161,19 +3224,19 @@
         <v>-7.394728572291666</v>
       </c>
       <c r="AD9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE9">
         <v>0.1371682785416664</v>
       </c>
       <c r="AF9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AI9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL9" t="b">
         <v>0</v>
@@ -3191,19 +3254,19 @@
         <v>45252.82396434028</v>
       </c>
       <c r="AQ9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX9">
         <v>2</v>
@@ -3218,25 +3281,25 @@
         <v>0</v>
       </c>
       <c r="BB9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BD9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BE9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BJ9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BK9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BL9" t="b">
         <v>1</v>
@@ -3251,7 +3314,7 @@
         <v>5.651110934022655E-07</v>
       </c>
       <c r="BP9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ9">
         <v>-7.227061905625</v>
@@ -3263,39 +3326,42 @@
         <v>966.5356181765771</v>
       </c>
       <c r="BU9" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:78">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>1.7265</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G10">
         <v>2.9909</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10">
         <v>1.776722584582068</v>
@@ -3310,7 +3376,7 @@
         <v>2.9909231</v>
       </c>
       <c r="Y10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z10">
         <v>0.2438540966071425</v>
@@ -3319,19 +3385,19 @@
         <v>-6.190921827</v>
       </c>
       <c r="AD10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE10">
         <v>-0.01643988949999979</v>
       </c>
       <c r="AF10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AI10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL10" t="b">
         <v>0</v>
@@ -3349,19 +3415,19 @@
         <v>45252.8263259375</v>
       </c>
       <c r="AQ10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AR10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX10">
         <v>2</v>
@@ -3376,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="BB10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BD10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BE10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BJ10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BK10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL10" t="b">
         <v>1</v>
@@ -3409,7 +3475,7 @@
         <v>8.878093434650341E-08</v>
       </c>
       <c r="BP10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ10">
         <v>-5.889121827</v>
@@ -3421,39 +3487,42 @@
         <v>898.8416329180352</v>
       </c>
       <c r="BU10" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:78">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>1.4507</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>3.1328</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11">
         <v>1.825519858068124</v>
@@ -3465,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="X11">
         <v>1.67452725</v>
       </c>
       <c r="Y11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z11">
         <v>0.2627068034948978</v>
@@ -3480,19 +3549,19 @@
         <v>-6.305111480535714</v>
       </c>
       <c r="AD11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE11">
         <v>0.01480776910714253</v>
       </c>
       <c r="AF11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL11" t="b">
         <v>0</v>
@@ -3510,19 +3579,19 @@
         <v>45252.82272959491</v>
       </c>
       <c r="AQ11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AR11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX11">
         <v>2</v>
@@ -3537,25 +3606,25 @@
         <v>0</v>
       </c>
       <c r="BB11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="BE11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BJ11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BK11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BL11" t="b">
         <v>0</v>
@@ -3570,7 +3639,7 @@
         <v>1.38412817297031E-06</v>
       </c>
       <c r="BP11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ11">
         <v>-6.017682909107143</v>
@@ -3582,42 +3651,45 @@
         <v>1195.554018995823</v>
       </c>
       <c r="BU11" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:78">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1.7443</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12">
         <v>2.511</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12">
         <v>1.694850675915236</v>
@@ -3629,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="X12">
         <v>0.88374843</v>
       </c>
       <c r="Y12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z12">
         <v>0.1802956649025971</v>
@@ -3644,19 +3716,19 @@
         <v>-5.661837016818182</v>
       </c>
       <c r="AD12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE12">
         <v>-0.1352121970454541</v>
       </c>
       <c r="AF12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AI12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL12" t="b">
         <v>0</v>
@@ -3674,19 +3746,19 @@
         <v>45252.82325802084</v>
       </c>
       <c r="AQ12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AR12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX12">
         <v>2</v>
@@ -3701,25 +3773,25 @@
         <v>0</v>
       </c>
       <c r="BB12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BD12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="BE12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BJ12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BK12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BL12" t="b">
         <v>0</v>
@@ -3734,7 +3806,7 @@
         <v>2.382692692509704E-06</v>
       </c>
       <c r="BP12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ12">
         <v>-5.296018835</v>
@@ -3746,42 +3818,45 @@
         <v>573.2589873187926</v>
       </c>
       <c r="BU12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BY12" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>265</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:78">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>1.5195</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13">
         <v>1.9822</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13">
         <v>1.57851412987736</v>
@@ -3796,7 +3871,7 @@
         <v>0.7447371</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z13">
         <v>0.2854216976691726</v>
@@ -3805,19 +3880,19 @@
         <v>-7.962931665394737</v>
       </c>
       <c r="AD13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AE13">
         <v>0.1940904744736842</v>
       </c>
       <c r="AF13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AI13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL13" t="b">
         <v>0</v>
@@ -3835,19 +3910,19 @@
         <v>45252.82228505787</v>
       </c>
       <c r="AQ13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AS13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AU13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AV13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AX13">
         <v>2</v>
@@ -3862,25 +3937,25 @@
         <v>0</v>
       </c>
       <c r="BB13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BD13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="BE13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BH13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BJ13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BK13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BL13" t="b">
         <v>0</v>
@@ -3895,7 +3970,7 @@
         <v>1.013967384319359E-05</v>
       </c>
       <c r="BP13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BQ13">
         <v>-7.857036928552632</v>
@@ -3907,10 +3982,13 @@
         <v>2595.576584316521</v>
       </c>
       <c r="BU13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BY13" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
